--- a/Dados/instituições_apacc_2.0.xlsx
+++ b/Dados/instituições_apacc_2.0.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="245">
   <si>
     <t>nome_consel</t>
   </si>
@@ -124,7 +124,7 @@
     <t>antonio marcos dos santos silva</t>
   </si>
   <si>
-    <t>beatriz mesquita j. pedrosa</t>
+    <t>beatriz mesquita jardim barbosa</t>
   </si>
   <si>
     <t>FUNDAJ</t>
@@ -133,9 +133,6 @@
     <t>Instituição de Ensino e Pesquisa</t>
   </si>
   <si>
-    <t>beatriz mesquita jardim barbosa</t>
-  </si>
-  <si>
     <t>benaldo do nascimento barros</t>
   </si>
   <si>
@@ -148,7 +145,7 @@
     <t>SPU/AL</t>
   </si>
   <si>
-    <t>bruno stefanis s. pereira de oliveira</t>
+    <t>bruno stefanis pereira de oliveira</t>
   </si>
   <si>
     <t>BIOTA-AL</t>
@@ -190,9 +187,6 @@
     <t>ARIBAMA</t>
   </si>
   <si>
-    <t>cícero de oliveira</t>
-  </si>
-  <si>
     <t>cícero josé dos santos</t>
   </si>
   <si>
@@ -259,7 +253,7 @@
     <t>NÁUTICA AMBIENTAL</t>
   </si>
   <si>
-    <t>darlany benedita c. Sá rocha</t>
+    <t>darlany benedita sá rocha</t>
   </si>
   <si>
     <t>diego da silva santos</t>
@@ -403,7 +397,7 @@
     <t>Z-25</t>
   </si>
   <si>
-    <t>joão b. de oliveira júnior</t>
+    <t>joão b de oliveira júnior</t>
   </si>
   <si>
     <t>joão cândido nogueira</t>
@@ -424,13 +418,10 @@
     <t>PMPP</t>
   </si>
   <si>
-    <t>joao heriberto meneses de lima</t>
-  </si>
-  <si>
     <t>joão mota da silva</t>
   </si>
   <si>
-    <t>josé amaro dos sanros</t>
+    <t>josé amaro dos santos</t>
   </si>
   <si>
     <t>ABEVILA</t>
@@ -442,7 +433,7 @@
     <t>josé cláudio damaso cavalcante</t>
   </si>
   <si>
-    <t>josé heriberto meneses de lima</t>
+    <t>josé heriberto menezes de lima</t>
   </si>
   <si>
     <t>josé ismar lima de carvalho</t>
@@ -533,9 +524,6 @@
   </si>
   <si>
     <t>luciana santos medeiros</t>
-  </si>
-  <si>
-    <t>luis claudio gonçalves de melo</t>
   </si>
   <si>
     <t>luiz claudio gonçalves de melo</t>
@@ -764,7 +752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -773,6 +761,7 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -788,12 +777,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,66 +1065,66 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" t="s">
-        <v>43</v>
+      <c r="A19" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1143,24 +1135,24 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -1168,41 +1160,41 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -1210,27 +1202,27 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -1238,10 +1230,10 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1252,27 +1244,27 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1280,111 +1272,111 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" t="s">
-        <v>79</v>
+      <c r="A38" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -1392,10 +1384,10 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1406,24 +1398,24 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1437,13 +1429,13 @@
         <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -1451,7 +1443,7 @@
         <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1465,13 +1457,13 @@
         <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -1479,13 +1471,13 @@
         <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -1493,7 +1485,7 @@
         <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1507,10 +1499,10 @@
         <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -1518,10 +1510,10 @@
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1532,38 +1524,38 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
@@ -1574,16 +1566,16 @@
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
@@ -1591,10 +1583,10 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1602,10 +1594,10 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1616,10 +1608,10 @@
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1630,24 +1622,24 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1658,27 +1650,27 @@
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1686,10 +1678,10 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1700,13 +1692,13 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1714,7 +1706,7 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
         <v>116</v>
@@ -1728,44 +1720,44 @@
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -1773,13 +1765,13 @@
         <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -1787,10 +1779,10 @@
         <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1801,7 +1793,7 @@
         <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -1812,24 +1804,24 @@
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" ht="12.75" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" t="s">
         <v>125</v>
-      </c>
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" t="s">
-        <v>127</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -1840,13 +1832,13 @@
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
@@ -1854,100 +1846,100 @@
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
         <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" t="s">
-        <v>135</v>
+      <c r="A76" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" t="s">
-        <v>139</v>
+      <c r="A79" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -1955,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
@@ -1966,10 +1958,10 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -1980,24 +1972,24 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -2008,27 +2000,27 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
@@ -2039,13 +2031,13 @@
         <v>150</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -2053,24 +2045,24 @@
         <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
@@ -2078,13 +2070,13 @@
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2092,24 +2084,24 @@
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -2120,27 +2112,27 @@
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2148,41 +2140,41 @@
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B94" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2190,10 +2182,10 @@
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2207,10 +2199,10 @@
         <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2221,10 +2213,10 @@
         <v>168</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2232,38 +2224,38 @@
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2274,10 +2266,10 @@
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -2288,69 +2280,69 @@
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B106" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="C108" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2358,13 +2350,13 @@
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B109" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2372,13 +2364,13 @@
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B110" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
         <v>11</v>
@@ -2386,10 +2378,10 @@
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
@@ -2400,10 +2392,10 @@
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B112" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
@@ -2417,10 +2409,10 @@
         <v>187</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="C113" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -2428,13 +2420,13 @@
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
         <v>11</v>
@@ -2442,24 +2434,24 @@
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -2470,41 +2462,41 @@
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B117" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B118" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="C119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D119" t="s">
         <v>11</v>
@@ -2512,13 +2504,13 @@
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B120" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -2526,27 +2518,27 @@
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B121" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B122" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -2554,13 +2546,13 @@
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B123" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="C123" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
         <v>11</v>
@@ -2568,41 +2560,41 @@
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B124" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B125" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B126" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C126" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
@@ -2610,13 +2602,13 @@
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B127" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
@@ -2624,38 +2616,38 @@
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B128" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B129" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
@@ -2666,16 +2658,16 @@
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B131" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" ht="12.75" customHeight="1">
@@ -2683,7 +2675,7 @@
         <v>213</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C132" t="s">
         <v>39</v>
@@ -2697,13 +2689,13 @@
         <v>214</v>
       </c>
       <c r="B133" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
@@ -2711,7 +2703,7 @@
         <v>215</v>
       </c>
       <c r="B134" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
@@ -2725,13 +2717,13 @@
         <v>216</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" ht="12.75" customHeight="1">
@@ -2739,10 +2731,10 @@
         <v>217</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -2753,10 +2745,10 @@
         <v>218</v>
       </c>
       <c r="B137" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
         <v>11</v>
@@ -2781,13 +2773,13 @@
         <v>220</v>
       </c>
       <c r="B139" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" ht="12.75" customHeight="1">
@@ -2795,7 +2787,7 @@
         <v>221</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
@@ -2809,10 +2801,10 @@
         <v>222</v>
       </c>
       <c r="B141" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
@@ -2823,10 +2815,10 @@
         <v>223</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
@@ -2837,7 +2829,7 @@
         <v>224</v>
       </c>
       <c r="B143" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
@@ -2851,7 +2843,7 @@
         <v>225</v>
       </c>
       <c r="B144" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
@@ -2865,13 +2857,13 @@
         <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
@@ -2879,13 +2871,13 @@
         <v>227</v>
       </c>
       <c r="B146" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" ht="12.75" customHeight="1">
@@ -2893,13 +2885,13 @@
         <v>228</v>
       </c>
       <c r="B147" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
@@ -2907,13 +2899,13 @@
         <v>229</v>
       </c>
       <c r="B148" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" ht="12.75" customHeight="1">
@@ -2921,13 +2913,13 @@
         <v>230</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" ht="12.75" customHeight="1">
@@ -2935,13 +2927,13 @@
         <v>231</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" ht="12.75" customHeight="1">
@@ -2949,10 +2941,10 @@
         <v>232</v>
       </c>
       <c r="B151" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
@@ -2963,13 +2955,13 @@
         <v>233</v>
       </c>
       <c r="B152" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" ht="12.75" customHeight="1">
@@ -2977,13 +2969,13 @@
         <v>234</v>
       </c>
       <c r="B153" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" ht="12.75" customHeight="1">
@@ -2991,77 +2983,77 @@
         <v>235</v>
       </c>
       <c r="B154" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B155" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B156" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B157" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B158" t="s">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B159" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
@@ -3072,88 +3064,36 @@
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B161" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
-      <c r="A162" t="s">
-        <v>245</v>
-      </c>
-      <c r="B162" t="s">
-        <v>69</v>
-      </c>
-      <c r="C162" t="s">
-        <v>39</v>
-      </c>
-      <c r="D162" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" ht="12.75" customHeight="1">
-      <c r="A163" t="s">
-        <v>246</v>
-      </c>
-      <c r="B163" t="s">
-        <v>33</v>
-      </c>
-      <c r="C163" t="s">
-        <v>6</v>
-      </c>
-      <c r="D163" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" ht="12.75" customHeight="1">
-      <c r="A164" t="s">
-        <v>247</v>
-      </c>
-      <c r="B164" t="s">
-        <v>56</v>
-      </c>
-      <c r="C164" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" ht="12.75" customHeight="1">
-      <c r="A165" t="s">
-        <v>248</v>
-      </c>
-      <c r="B165" t="s">
-        <v>149</v>
-      </c>
-      <c r="C165" t="s">
-        <v>21</v>
-      </c>
-      <c r="D165" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
     <row r="166" ht="12.75" customHeight="1"/>
     <row r="167" ht="12.75" customHeight="1"/>
     <row r="168" ht="12.75" customHeight="1"/>
@@ -3985,10 +3925,6 @@
     <row r="994" ht="12.75" customHeight="1"/>
     <row r="995" ht="12.75" customHeight="1"/>
     <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
